--- a/datamining/final_data/tfidf1959_nltk.xlsx
+++ b/datamining/final_data/tfidf1959_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM25"/>
+  <dimension ref="A1:BU25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,440 +447,350 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>art</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>child</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>identifying</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>motivating</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>read</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>motivating</t>
+          <t>want</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>contributing</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>factors</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>learner</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>will</t>
+          <t>rapid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>underachievement</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>continuum</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>contributing</t>
+          <t>high</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>factors</t>
+          <t>school-college</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>learner</t>
+          <t>page</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>rapid</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>languages</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>underachievement</t>
+          <t>consultant</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>continuum</t>
+          <t>curriculum</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>enrichment</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>implementing</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>school-college</t>
+          <t>enigma</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>page</t>
+          <t>new</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>pope</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>languages</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>consultant</t>
+          <t>guidance</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>curriculum</t>
+          <t>dilemma</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>enrichment</t>
+          <t>terminology</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>implementing</t>
+          <t>able</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>program</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>enigma</t>
+          <t>affiliated</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>brief-history</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>formation</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>pope</t>
+          <t>groups</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>seen</t>
+          <t>national-association-for-gifted-children</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>guidance</t>
+          <t>suggestions</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>dilemma</t>
+          <t>challenge</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>terminology</t>
+          <t>speech</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>able</t>
+          <t>concert</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>contrasting</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>affiliated</t>
+          <t>experiences</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>brief-history</t>
+          <t>maturational</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>formation</t>
+          <t>pianists</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>feature</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>national-association-for-gifted-children</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>suggestions</t>
+          <t>book</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>brumbaugh</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>challenge</t>
+          <t>fn</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>speech</t>
+          <t>gifted-child</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>concert</t>
+          <t>guide</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>contrasting</t>
+          <t>review</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>experiences</t>
+          <t>roshco</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>maturational</t>
+          <t>gifted-children</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>pianists</t>
+          <t>helping</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>feature</t>
+          <t>community</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>done</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>local</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>nagc</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>brumbaugh</t>
+          <t>reasons</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>fn</t>
+          <t>eldorado</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>gifted-child</t>
+          <t>school</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>guide</t>
+          <t>bright</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>children</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>roshco</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>science</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>gifted-children</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>helping</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>state</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>community</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>local</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>more</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>nagc</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>own</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>reasons</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>what</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>eldorado</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>school</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>bright</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>children</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>experience</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>science</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>summer</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>movement</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>york</t>
         </is>
@@ -897,28 +807,28 @@
         <v>2474</v>
       </c>
       <c r="D2" t="n">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
       <c r="E2" t="n">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="F2" t="n">
-        <v>0.36</v>
+        <v>0.14</v>
       </c>
       <c r="G2" t="n">
-        <v>0.13</v>
+        <v>0.52</v>
       </c>
       <c r="H2" t="n">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -1104,60 +1014,6 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1187,25 +1043,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -1379,60 +1235,6 @@
         <v>0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1462,46 +1264,46 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="P4" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -1654,60 +1456,6 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1728,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="G5" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1743,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1758,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1779,16 +1527,16 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -1929,60 +1677,6 @@
         <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2012,25 +1706,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -2204,60 +1898,6 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2317,10 +1957,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -2341,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -2479,60 +2119,6 @@
         <v>0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2553,10 +2139,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="G8" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -2568,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -2598,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -2607,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -2622,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -2754,60 +2340,6 @@
         <v>0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2858,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -2876,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -2900,19 +2432,19 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
@@ -3029,60 +2561,6 @@
         <v>0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3103,16 +2581,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="G10" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -3163,16 +2641,16 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -3190,19 +2668,19 @@
         <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
         <v>0</v>
@@ -3304,60 +2782,6 @@
         <v>0</v>
       </c>
       <c r="BU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3378,10 +2802,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="G11" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -3393,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3432,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -3450,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -3480,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
         <v>0</v>
@@ -3579,60 +3003,6 @@
         <v>0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3647,16 +3017,16 @@
         <v>2484</v>
       </c>
       <c r="D12" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="G12" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -3668,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -3728,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
@@ -3758,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
         <v>0</v>
@@ -3854,60 +3224,6 @@
         <v>0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3925,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="F13" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -3943,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -3958,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -3982,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.19</v>
+        <v>0.44</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -4006,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -4021,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
@@ -4039,10 +3355,10 @@
         <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
         <v>0</v>
@@ -4129,60 +3445,6 @@
         <v>0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4218,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -4233,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -4257,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -4290,22 +3552,22 @@
         <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="AO14" t="n">
         <v>0</v>
@@ -4320,25 +3582,25 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AZ14" t="n">
         <v>0</v>
@@ -4404,60 +3666,6 @@
         <v>0</v>
       </c>
       <c r="BU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4478,10 +3686,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="G15" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -4493,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -4508,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -4532,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -4583,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
@@ -4616,10 +3824,10 @@
         <v>0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="BB15" t="n">
         <v>0</v>
@@ -4679,60 +3887,6 @@
         <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4846,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
         <v>0</v>
@@ -4864,19 +4018,19 @@
         <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AS16" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AV16" t="n">
         <v>0</v>
@@ -4897,19 +4051,19 @@
         <v>0</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="BG16" t="n">
         <v>0</v>
@@ -4954,60 +4108,6 @@
         <v>0</v>
       </c>
       <c r="BU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5154,10 +4254,10 @@
         <v>0</v>
       </c>
       <c r="AV17" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AW17" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AX17" t="n">
         <v>0</v>
@@ -5187,10 +4287,10 @@
         <v>0</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="BI17" t="n">
         <v>0</v>
@@ -5229,60 +4329,6 @@
         <v>0</v>
       </c>
       <c r="BU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5312,25 +4358,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -5504,60 +4550,6 @@
         <v>0</v>
       </c>
       <c r="BU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -5620,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -5632,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -5644,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -5710,25 +4702,25 @@
         <v>0</v>
       </c>
       <c r="AX19" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AY19" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BA19" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BB19" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BC19" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BD19" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BE19" t="n">
         <v>0</v>
@@ -5743,31 +4735,31 @@
         <v>0</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BK19" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BL19" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BN19" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BO19" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BP19" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BR19" t="n">
         <v>0</v>
@@ -5779,60 +4771,6 @@
         <v>0</v>
       </c>
       <c r="BU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6006,10 +4944,10 @@
         <v>0</v>
       </c>
       <c r="BE20" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="BF20" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="BG20" t="n">
         <v>0</v>
@@ -6045,69 +4983,15 @@
         <v>0</v>
       </c>
       <c r="BR20" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="BS20" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="BT20" t="n">
         <v>0</v>
       </c>
       <c r="BU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6224,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
@@ -6254,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AW21" t="n">
         <v>0</v>
@@ -6287,19 +5171,19 @@
         <v>0</v>
       </c>
       <c r="BG21" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="BH21" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="BI21" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="BK21" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="BL21" t="n">
         <v>0</v>
@@ -6317,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BR21" t="n">
         <v>0</v>
@@ -6326,63 +5210,9 @@
         <v>0</v>
       </c>
       <c r="BT21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BU21" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6403,10 +5233,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="G22" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -6577,10 +5407,10 @@
         <v>0</v>
       </c>
       <c r="BL22" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="BM22" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="BN22" t="n">
         <v>0</v>
@@ -6604,60 +5434,6 @@
         <v>0</v>
       </c>
       <c r="BU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6687,25 +5463,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -6879,60 +5655,6 @@
         <v>0</v>
       </c>
       <c r="BU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6953,10 +5675,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="G24" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -7133,19 +5855,19 @@
         <v>0</v>
       </c>
       <c r="BN24" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="BO24" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="BP24" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="BQ24" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="BR24" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
@@ -7154,60 +5876,6 @@
         <v>0</v>
       </c>
       <c r="BU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF24" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CG24" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CH24" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CI24" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CJ24" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7228,10 +5896,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -7291,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AB25" t="n">
         <v>0</v>
@@ -7318,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
         <v>0</v>
@@ -7423,66 +6091,12 @@
         <v>0</v>
       </c>
       <c r="BS25" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="BT25" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="BU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK25" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="CL25" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="CM25" t="n">
         <v>0.52</v>
       </c>
     </row>
